--- a/biology/Zoologie/Colibri_circé/Colibri_circé.xlsx
+++ b/biology/Zoologie/Colibri_circé/Colibri_circé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colibri_circ%C3%A9</t>
+          <t>Colibri_circé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynanthus latirostris
 Le Colibri circé (Cynanthus latirostris) est une espèce d’oiseaux de la famille des Trochilidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colibri_circ%C3%A9</t>
+          <t>Colibri_circé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure 9 à 10 cm de longueur pour une masse de 3,2 à 4,4 g.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colibri_circ%C3%A9</t>
+          <t>Colibri_circé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme le nectar des fleurs des genres Agave, Caesalpinia, Castilleja et Opuntia. Il se nourrit également d'arthropodes : araignées, mouches (diptères), hyménoptères et autres.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colibri_circ%C3%A9</t>
+          <t>Colibri_circé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette espèce se rencontre principalement au Mexique et dans le sud des États-Unis.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colibri_circ%C3%A9</t>
+          <t>Colibri_circé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales ou subtropicales humides de basse altitude ou sèches.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colibri_circ%C3%A9</t>
+          <t>Colibri_circé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se reproduit de janvier à mai au Mexique et d'avril à août aux États-Unis. Le mâle attire la femelle avec des chants assez simples. La femelle construit le nid et pond de un a deux œufs blancs allongés. Elle les couve seule pendant 14 à 23 jours[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se reproduit de janvier à mai au Mexique et d'avril à août aux États-Unis. Le mâle attire la femelle avec des chants assez simples. La femelle construit le nid et pond de un a deux œufs blancs allongés. Elle les couve seule pendant 14 à 23 jours.
 </t>
         </is>
       </c>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Colibri_circ%C3%A9</t>
+          <t>Colibri_circé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
 Cynanthus latirostris latirostris Swainson 1827 ;
